--- a/tests/test-files/test_merge/expected/merge_book_output.xlsx
+++ b/tests/test-files/test_merge/expected/merge_book_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I235"/>
+  <dimension ref="A1:I230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2439,7 +2439,7 @@
         <v>3</v>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>3.51</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2470,7 +2470,7 @@
         <v>4</v>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>3.19</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
         <v>5</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>3.01</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2532,7 +2532,7 @@
         <v>6</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B69" t="n">
         <v>6.9</v>
@@ -2563,7 +2563,7 @@
         <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>0.005773502691896263</v>
+        <v>4.206666666666667</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -2585,16 +2585,16 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B70" t="n">
         <v>6.9</v>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>3.51</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>3</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.009054627815559876</v>
+        <v>-0.008499783109670946</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2616,16 +2616,16 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B71" t="n">
         <v>6.9</v>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>3.19</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -2636,7 +2636,7 @@
         <v>3</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.008499783109670946</v>
+        <v>-0.005098655263943805</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
@@ -2647,16 +2647,16 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B72" t="n">
         <v>6.9</v>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
-        <v>0</v>
+        <v>3.01</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>3</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.005098655263943805</v>
+        <v>-0.01096350530713087</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2678,16 +2678,16 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B73" t="n">
         <v>6.9</v>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -2698,7 +2698,7 @@
         <v>3</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.01096350530713087</v>
+        <v>-0.01156334042859705</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2709,16 +2709,16 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B74" t="n">
         <v>6.9</v>
       </c>
       <c r="C74" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>3.51</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2729,7 +2729,7 @@
         <v>3</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.01156334042859705</v>
+        <v>-0.001954026953442864</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2740,16 +2740,16 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B75" t="n">
         <v>6.9</v>
       </c>
       <c r="C75" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>3.19</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         <v>3</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.0009459629668418408</v>
+        <v>-0.008763872772305996</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2771,16 +2771,16 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B76" t="n">
         <v>6.9</v>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>3.01</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2791,7 +2791,7 @@
         <v>3</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.001954026953442864</v>
+        <v>-0.00553108623272969</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
@@ -2802,16 +2802,16 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B77" t="n">
         <v>6.9</v>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D77" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2822,7 +2822,7 @@
         <v>3</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.008763872772305996</v>
+        <v>-0.01419603702244092</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2833,16 +2833,16 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B78" t="n">
         <v>6.9</v>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>3.51</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>3</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.00553108623272969</v>
+        <v>-0.003520398616922673</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
@@ -2864,16 +2864,16 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B79" t="n">
         <v>6.9</v>
       </c>
       <c r="C79" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
+        <v>3.19</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         <v>3</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.01419603702244092</v>
+        <v>-0.009357677942039665</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2895,16 +2895,16 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B80" t="n">
         <v>6.9</v>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>3.01</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>3</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.003520398616922673</v>
+        <v>-0.006834293301640772</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
@@ -2926,16 +2926,16 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B81" t="n">
         <v>6.9</v>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>3</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.009357677942039665</v>
+        <v>-0.01331169245629756</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2963,10 +2963,10 @@
         <v>6.9</v>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>3.51</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>3</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.006834293301640772</v>
+        <v>-0.005371174955311237</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2994,10 +2994,10 @@
         <v>6.9</v>
       </c>
       <c r="C83" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>3.19</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         <v>3</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.01331169245629756</v>
+        <v>-0.007319201070260741</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -3019,16 +3019,16 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B84" t="n">
         <v>6.9</v>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
-        <v>0</v>
+        <v>3.01</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         <v>3</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.005371174955311237</v>
+        <v>-0.01053125630949575</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -3050,16 +3050,16 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B85" t="n">
         <v>6.9</v>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D85" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
         <v>3</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.007319201070260741</v>
+        <v>-0.01407516039978672</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -3081,16 +3081,16 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B86" t="n">
         <v>6.9</v>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>4.206666666666667</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -3101,7 +3101,7 @@
         <v>3</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.01053125630949575</v>
+        <v>-0.02603442881979812</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -3112,16 +3112,16 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B87" t="n">
         <v>6.9</v>
       </c>
       <c r="C87" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>4.126666666666666</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>3</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.01407516039978672</v>
+        <v>-0.01229049279501187</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -3143,16 +3143,16 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B88" t="n">
         <v>6.9</v>
       </c>
       <c r="C88" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
-        <v>0.005773502691896263</v>
+        <v>3.51</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         <v>3</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.02603442881979812</v>
+        <v>-0.01513299034199864</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -3174,16 +3174,16 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B89" t="n">
         <v>6.9</v>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
-        <v>0.005773502691896071</v>
+        <v>3.19</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>3</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.01229049279501187</v>
+        <v>-0.009894414806281216</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -3205,16 +3205,16 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B90" t="n">
         <v>6.9</v>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
-        <v>0</v>
+        <v>3.01</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
         <v>3</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.01513299034199864</v>
+        <v>-0.01367217867675606</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -3236,16 +3236,16 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B91" t="n">
         <v>6.9</v>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -3256,7 +3256,7 @@
         <v>3</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.009894414806281216</v>
+        <v>-0.01727911124070991</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3267,16 +3267,16 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B92" t="n">
         <v>6.9</v>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
-        <v>0</v>
+        <v>3.51</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
         <v>3</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.01367217867675606</v>
+        <v>-0.001328073257524281</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3298,16 +3298,16 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B93" t="n">
         <v>6.9</v>
       </c>
       <c r="C93" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
-        <v>0</v>
+        <v>3.19</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>3</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.01727911124070991</v>
+        <v>-0.004135726995172248</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
@@ -3329,16 +3329,16 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B94" t="n">
         <v>6.9</v>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
-        <v>0</v>
+        <v>3.01</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -3349,7 +3349,7 @@
         <v>3</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.001328073257524281</v>
+        <v>-0.01003510855057091</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3360,16 +3360,16 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B95" t="n">
         <v>6.9</v>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D95" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         <v>3</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.004135726995172248</v>
+        <v>-0.00572435673500098</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3391,16 +3391,16 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B96" t="n">
-        <v>6.9</v>
+        <v>8.128</v>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
-        <v>0</v>
+        <v>3.19</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -3411,7 +3411,7 @@
         <v>3</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.01003510855057091</v>
+        <v>-0.001330546908526516</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3422,16 +3422,16 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B97" t="n">
-        <v>6.9</v>
+        <v>8.128</v>
       </c>
       <c r="C97" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>3.01</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         <v>3</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.00572435673500098</v>
+        <v>-0.001783833345459204</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
@@ -3453,16 +3453,16 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B98" t="n">
         <v>8.128</v>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -3473,7 +3473,7 @@
         <v>3</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.001330546908526516</v>
+        <v>-0.001927867932672624</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3484,16 +3484,16 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B99" t="n">
         <v>8.128</v>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D99" t="n">
-        <v>0</v>
+        <v>4.21</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -3504,7 +3504,7 @@
         <v>3</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.001783833345459204</v>
+        <v>-0.006534026362799322</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3515,16 +3515,16 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B100" t="n">
         <v>8.128</v>
       </c>
       <c r="C100" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
-        <v>0</v>
+        <v>3.51</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -3535,7 +3535,7 @@
         <v>3</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.001927867932672624</v>
+        <v>-0.0009384417944736146</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3546,16 +3546,16 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B101" t="n">
         <v>8.128</v>
       </c>
       <c r="C101" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
-        <v>0</v>
+        <v>3.19</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -3566,7 +3566,7 @@
         <v>3</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.006534026362799322</v>
+        <v>-0.002490784264580512</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
@@ -3577,16 +3577,16 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B102" t="n">
         <v>8.128</v>
       </c>
       <c r="C102" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D102" t="n">
-        <v>0</v>
+        <v>3.01</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         <v>3</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.0009384417944736146</v>
+        <v>-0.0006393836131531215</v>
       </c>
       <c r="H102" t="b">
         <v>0</v>
@@ -3608,16 +3608,16 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B103" t="n">
         <v>8.128</v>
       </c>
       <c r="C103" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D103" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         <v>3</v>
       </c>
       <c r="G103" t="n">
-        <v>-0.002490784264580512</v>
+        <v>-0.0003806029718879137</v>
       </c>
       <c r="H103" t="b">
         <v>0</v>
@@ -3639,16 +3639,16 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B104" t="n">
         <v>8.128</v>
       </c>
       <c r="C104" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D104" t="n">
-        <v>0</v>
+        <v>3.51</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>3</v>
       </c>
       <c r="G104" t="n">
-        <v>-0.0006393836131531215</v>
+        <v>-0.00300100303514621</v>
       </c>
       <c r="H104" t="b">
         <v>0</v>
@@ -3670,16 +3670,16 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B105" t="n">
         <v>8.128</v>
       </c>
       <c r="C105" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D105" t="n">
-        <v>0</v>
+        <v>3.19</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>3</v>
       </c>
       <c r="G105" t="n">
-        <v>-0.0003806029718879137</v>
+        <v>-0.002418078916259103</v>
       </c>
       <c r="H105" t="b">
         <v>0</v>
@@ -3701,16 +3701,16 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="B106" t="n">
         <v>8.128</v>
       </c>
       <c r="C106" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D106" t="n">
-        <v>0</v>
+        <v>3.01</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -3721,7 +3721,7 @@
         <v>3</v>
       </c>
       <c r="G106" t="n">
-        <v>-0.00300100303514621</v>
+        <v>-0.004782909486006745</v>
       </c>
       <c r="H106" t="b">
         <v>0</v>
@@ -3732,16 +3732,16 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B107" t="n">
         <v>8.128</v>
       </c>
       <c r="C107" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D107" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>3</v>
       </c>
       <c r="G107" t="n">
-        <v>-0.002418078916259103</v>
+        <v>-0.009023261686563467</v>
       </c>
       <c r="H107" t="b">
         <v>0</v>
@@ -3763,16 +3763,16 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B108" t="n">
         <v>8.128</v>
       </c>
       <c r="C108" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D108" t="n">
-        <v>0</v>
+        <v>3.51</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         <v>3</v>
       </c>
       <c r="G108" t="n">
-        <v>-0.004782909486006745</v>
+        <v>-0.004332361771291936</v>
       </c>
       <c r="H108" t="b">
         <v>0</v>
@@ -3794,16 +3794,16 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B109" t="n">
         <v>8.128</v>
       </c>
       <c r="C109" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D109" t="n">
-        <v>0</v>
+        <v>3.19</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="G109" t="n">
-        <v>-0.009023261686563467</v>
+        <v>-0.003681275994637411</v>
       </c>
       <c r="H109" t="b">
         <v>0</v>
@@ -3825,16 +3825,16 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B110" t="n">
         <v>8.128</v>
       </c>
       <c r="C110" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D110" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -3845,7 +3845,7 @@
         <v>3</v>
       </c>
       <c r="G110" t="n">
-        <v>-0.004332361771291936</v>
+        <v>-0.005439405221002617</v>
       </c>
       <c r="H110" t="b">
         <v>0</v>
@@ -3856,16 +3856,16 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B111" t="n">
         <v>8.128</v>
       </c>
       <c r="C111" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D111" t="n">
-        <v>0</v>
+        <v>3.51</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>3</v>
       </c>
       <c r="G111" t="n">
-        <v>-0.003681275994637411</v>
+        <v>-0.01165463044078965</v>
       </c>
       <c r="H111" t="b">
         <v>0</v>
@@ -3887,16 +3887,16 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="B112" t="n">
         <v>8.128</v>
       </c>
       <c r="C112" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D112" t="n">
-        <v>0</v>
+        <v>3.19</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         <v>3</v>
       </c>
       <c r="G112" t="n">
-        <v>-0.005439405221002617</v>
+        <v>-0.01112957844927979</v>
       </c>
       <c r="H112" t="b">
         <v>0</v>
@@ -3918,16 +3918,16 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="B113" t="n">
         <v>8.128</v>
       </c>
       <c r="C113" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D113" t="n">
-        <v>0</v>
+        <v>3.01</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -3938,7 +3938,7 @@
         <v>3</v>
       </c>
       <c r="G113" t="n">
-        <v>-0.01165463044078965</v>
+        <v>-0.008655945326692321</v>
       </c>
       <c r="H113" t="b">
         <v>0</v>
@@ -3949,16 +3949,16 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="B114" t="n">
         <v>8.128</v>
       </c>
       <c r="C114" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D114" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -3969,7 +3969,7 @@
         <v>3</v>
       </c>
       <c r="G114" t="n">
-        <v>-0.01112957844927979</v>
+        <v>-0.01268051103782887</v>
       </c>
       <c r="H114" t="b">
         <v>0</v>
@@ -3980,16 +3980,16 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="B115" t="n">
         <v>8.128</v>
       </c>
       <c r="C115" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D115" t="n">
-        <v>0</v>
+        <v>4.21</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -4000,7 +4000,7 @@
         <v>3</v>
       </c>
       <c r="G115" t="n">
-        <v>-0.008655945326692321</v>
+        <v>-0.0272445873905591</v>
       </c>
       <c r="H115" t="b">
         <v>0</v>
@@ -4011,16 +4011,16 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="B116" t="n">
         <v>8.128</v>
       </c>
       <c r="C116" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D116" t="n">
-        <v>0</v>
+        <v>3.51</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
         <v>3</v>
       </c>
       <c r="G116" t="n">
-        <v>-0.01268051103782887</v>
+        <v>-0.01738084094001257</v>
       </c>
       <c r="H116" t="b">
         <v>0</v>
@@ -4042,16 +4042,16 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="B117" t="n">
         <v>8.128</v>
       </c>
       <c r="C117" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D117" t="n">
-        <v>0</v>
+        <v>3.19</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -4062,7 +4062,7 @@
         <v>3</v>
       </c>
       <c r="G117" t="n">
-        <v>-0.0272445873905591</v>
+        <v>-0.01073008041744232</v>
       </c>
       <c r="H117" t="b">
         <v>0</v>
@@ -4073,16 +4073,16 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="B118" t="n">
         <v>8.128</v>
       </c>
       <c r="C118" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D118" t="n">
-        <v>0</v>
+        <v>3.01</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -4093,7 +4093,7 @@
         <v>3</v>
       </c>
       <c r="G118" t="n">
-        <v>-0.01738084094001257</v>
+        <v>-0.007546643418424636</v>
       </c>
       <c r="H118" t="b">
         <v>0</v>
@@ -4104,16 +4104,16 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="B119" t="n">
         <v>8.128</v>
       </c>
       <c r="C119" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D119" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -4124,7 +4124,7 @@
         <v>3</v>
       </c>
       <c r="G119" t="n">
-        <v>-0.01073008041744232</v>
+        <v>-0.01354120380418164</v>
       </c>
       <c r="H119" t="b">
         <v>0</v>
@@ -4135,16 +4135,16 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="B120" t="n">
         <v>8.128</v>
       </c>
       <c r="C120" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D120" t="n">
-        <v>0</v>
+        <v>4.21</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -4155,7 +4155,7 @@
         <v>3</v>
       </c>
       <c r="G120" t="n">
-        <v>-0.007546643418424636</v>
+        <v>-0.01285235801943416</v>
       </c>
       <c r="H120" t="b">
         <v>0</v>
@@ -4166,16 +4166,16 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="B121" t="n">
         <v>8.128</v>
       </c>
       <c r="C121" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D121" t="n">
-        <v>0</v>
+        <v>3.51</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         <v>3</v>
       </c>
       <c r="G121" t="n">
-        <v>-0.01354120380418164</v>
+        <v>-0.02014844242547794</v>
       </c>
       <c r="H121" t="b">
         <v>0</v>
@@ -4197,16 +4197,16 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="B122" t="n">
         <v>8.128</v>
       </c>
       <c r="C122" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D122" t="n">
-        <v>0</v>
+        <v>3.19</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>3</v>
       </c>
       <c r="G122" t="n">
-        <v>-0.01285235801943416</v>
+        <v>-0.0136281082028086</v>
       </c>
       <c r="H122" t="b">
         <v>0</v>
@@ -4228,16 +4228,16 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="B123" t="n">
         <v>8.128</v>
       </c>
       <c r="C123" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D123" t="n">
-        <v>0</v>
+        <v>3.01</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -4248,7 +4248,7 @@
         <v>3</v>
       </c>
       <c r="G123" t="n">
-        <v>-0.02014844242547794</v>
+        <v>-0.00856089191660734</v>
       </c>
       <c r="H123" t="b">
         <v>0</v>
@@ -4259,16 +4259,16 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B124" t="n">
         <v>8.128</v>
       </c>
       <c r="C124" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D124" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -4279,7 +4279,7 @@
         <v>3</v>
       </c>
       <c r="G124" t="n">
-        <v>-0.0136281082028086</v>
+        <v>-0.01275356589830144</v>
       </c>
       <c r="H124" t="b">
         <v>0</v>
@@ -4290,16 +4290,16 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="B125" t="n">
-        <v>8.128</v>
+        <v>9.5625</v>
       </c>
       <c r="C125" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D125" t="n">
-        <v>0</v>
+        <v>3.19</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -4310,7 +4310,7 @@
         <v>3</v>
       </c>
       <c r="G125" t="n">
-        <v>-0.00856089191660734</v>
+        <v>-9.215318753236874e-05</v>
       </c>
       <c r="H125" t="b">
         <v>0</v>
@@ -4321,16 +4321,16 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="B126" t="n">
-        <v>8.128</v>
+        <v>9.5625</v>
       </c>
       <c r="C126" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D126" t="n">
-        <v>0</v>
+        <v>3.01</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
         <v>3</v>
       </c>
       <c r="G126" t="n">
-        <v>-0.01275356589830144</v>
+        <v>-0.0007540673198229292</v>
       </c>
       <c r="H126" t="b">
         <v>0</v>
@@ -4352,16 +4352,16 @@
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="B127" t="n">
         <v>9.5625</v>
       </c>
       <c r="C127" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D127" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         <v>3</v>
       </c>
       <c r="G127" t="n">
-        <v>-9.215318753236874e-05</v>
+        <v>-0.007312513367543372</v>
       </c>
       <c r="H127" t="b">
         <v>0</v>
@@ -4383,16 +4383,16 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="B128" t="n">
         <v>9.5625</v>
       </c>
       <c r="C128" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D128" t="n">
-        <v>0</v>
+        <v>3.51</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>3</v>
       </c>
       <c r="G128" t="n">
-        <v>-0.0007540673198229292</v>
+        <v>-0.01069622679670828</v>
       </c>
       <c r="H128" t="b">
         <v>0</v>
@@ -4414,16 +4414,16 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="B129" t="n">
         <v>9.5625</v>
       </c>
       <c r="C129" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D129" t="n">
-        <v>0</v>
+        <v>3.19</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -4434,7 +4434,7 @@
         <v>3</v>
       </c>
       <c r="G129" t="n">
-        <v>-0.007312513367543372</v>
+        <v>-0.01073724320867977</v>
       </c>
       <c r="H129" t="b">
         <v>0</v>
@@ -4445,16 +4445,16 @@
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="B130" t="n">
         <v>9.5625</v>
       </c>
       <c r="C130" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D130" t="n">
-        <v>0</v>
+        <v>3.01</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -4465,7 +4465,7 @@
         <v>3</v>
       </c>
       <c r="G130" t="n">
-        <v>-0.02212307381852331</v>
+        <v>-0.01690871001190973</v>
       </c>
       <c r="H130" t="b">
         <v>0</v>
@@ -4476,16 +4476,16 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="B131" t="n">
         <v>9.5625</v>
       </c>
       <c r="C131" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D131" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>3</v>
       </c>
       <c r="G131" t="n">
-        <v>-0.01069622679670828</v>
+        <v>-0.01152855963229713</v>
       </c>
       <c r="H131" t="b">
         <v>0</v>
@@ -4507,16 +4507,16 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="B132" t="n">
         <v>9.5625</v>
       </c>
       <c r="C132" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D132" t="n">
-        <v>0</v>
+        <v>3.51</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -4527,7 +4527,7 @@
         <v>3</v>
       </c>
       <c r="G132" t="n">
-        <v>-0.01073724320867977</v>
+        <v>-0.0107175834500701</v>
       </c>
       <c r="H132" t="b">
         <v>0</v>
@@ -4538,16 +4538,16 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="B133" t="n">
         <v>9.5625</v>
       </c>
       <c r="C133" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D133" t="n">
-        <v>0</v>
+        <v>3.19</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>3</v>
       </c>
       <c r="G133" t="n">
-        <v>-0.01690871001190973</v>
+        <v>-0.00965328416129513</v>
       </c>
       <c r="H133" t="b">
         <v>0</v>
@@ -4569,7 +4569,7 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="B134" t="n">
         <v>9.5625</v>
@@ -4578,7 +4578,7 @@
         <v>6</v>
       </c>
       <c r="D134" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
         <v>3</v>
       </c>
       <c r="G134" t="n">
-        <v>-0.01152855963229713</v>
+        <v>-0.009986985630176255</v>
       </c>
       <c r="H134" t="b">
         <v>0</v>
@@ -4600,7 +4600,7 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="B135" t="n">
         <v>9.5625</v>
@@ -4609,7 +4609,7 @@
         <v>3</v>
       </c>
       <c r="D135" t="n">
-        <v>0</v>
+        <v>3.51</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>3</v>
       </c>
       <c r="G135" t="n">
-        <v>-0.0107175834500701</v>
+        <v>-0.0118048371113879</v>
       </c>
       <c r="H135" t="b">
         <v>0</v>
@@ -4631,7 +4631,7 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="B136" t="n">
         <v>9.5625</v>
@@ -4640,7 +4640,7 @@
         <v>4</v>
       </c>
       <c r="D136" t="n">
-        <v>0</v>
+        <v>3.19</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -4651,7 +4651,7 @@
         <v>3</v>
       </c>
       <c r="G136" t="n">
-        <v>-0.00965328416129513</v>
+        <v>-0.01060375124574925</v>
       </c>
       <c r="H136" t="b">
         <v>0</v>
@@ -4662,7 +4662,7 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="B137" t="n">
         <v>9.5625</v>
@@ -4671,7 +4671,7 @@
         <v>6</v>
       </c>
       <c r="D137" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>3</v>
       </c>
       <c r="G137" t="n">
-        <v>-0.009986985630176255</v>
+        <v>-0.009484024610630228</v>
       </c>
       <c r="H137" t="b">
         <v>0</v>
@@ -4693,7 +4693,7 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="B138" t="n">
         <v>9.5625</v>
@@ -4702,7 +4702,7 @@
         <v>3</v>
       </c>
       <c r="D138" t="n">
-        <v>0</v>
+        <v>3.51</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>3</v>
       </c>
       <c r="G138" t="n">
-        <v>-0.0118048371113879</v>
+        <v>-0.01274603779133954</v>
       </c>
       <c r="H138" t="b">
         <v>0</v>
@@ -4724,7 +4724,7 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="B139" t="n">
         <v>9.5625</v>
@@ -4733,7 +4733,7 @@
         <v>4</v>
       </c>
       <c r="D139" t="n">
-        <v>0</v>
+        <v>3.19</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -4744,7 +4744,7 @@
         <v>3</v>
       </c>
       <c r="G139" t="n">
-        <v>-0.01060375124574925</v>
+        <v>-0.01469426494149371</v>
       </c>
       <c r="H139" t="b">
         <v>0</v>
@@ -4755,16 +4755,16 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="B140" t="n">
         <v>9.5625</v>
       </c>
       <c r="C140" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D140" t="n">
-        <v>0</v>
+        <v>3.01</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>3</v>
       </c>
       <c r="G140" t="n">
-        <v>-0.009484024610630228</v>
+        <v>-0.001263340732526022</v>
       </c>
       <c r="H140" t="b">
         <v>0</v>
@@ -4786,16 +4786,16 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="B141" t="n">
         <v>9.5625</v>
       </c>
       <c r="C141" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D141" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         <v>3</v>
       </c>
       <c r="G141" t="n">
-        <v>-0.01274603779133954</v>
+        <v>-0.01468341665894664</v>
       </c>
       <c r="H141" t="b">
         <v>0</v>
@@ -4817,16 +4817,16 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="B142" t="n">
         <v>9.5625</v>
       </c>
       <c r="C142" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D142" t="n">
-        <v>0</v>
+        <v>3.51</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -4837,7 +4837,7 @@
         <v>3</v>
       </c>
       <c r="G142" t="n">
-        <v>-0.01469426494149371</v>
+        <v>-0.01405270457275032</v>
       </c>
       <c r="H142" t="b">
         <v>0</v>
@@ -4848,16 +4848,16 @@
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="B143" t="n">
         <v>9.5625</v>
       </c>
       <c r="C143" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D143" t="n">
-        <v>0</v>
+        <v>3.19</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -4868,7 +4868,7 @@
         <v>3</v>
       </c>
       <c r="G143" t="n">
-        <v>-0.001263340732526022</v>
+        <v>-0.01506272163891546</v>
       </c>
       <c r="H143" t="b">
         <v>0</v>
@@ -4879,7 +4879,7 @@
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="B144" t="n">
         <v>9.5625</v>
@@ -4888,7 +4888,7 @@
         <v>6</v>
       </c>
       <c r="D144" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -4899,7 +4899,7 @@
         <v>3</v>
       </c>
       <c r="G144" t="n">
-        <v>-0.01468341665894664</v>
+        <v>-0.0168302822782083</v>
       </c>
       <c r="H144" t="b">
         <v>0</v>
@@ -4910,7 +4910,7 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="B145" t="n">
         <v>9.5625</v>
@@ -4919,7 +4919,7 @@
         <v>3</v>
       </c>
       <c r="D145" t="n">
-        <v>0</v>
+        <v>3.51</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -4930,7 +4930,7 @@
         <v>3</v>
       </c>
       <c r="G145" t="n">
-        <v>-0.01405270457275032</v>
+        <v>-0.01684291174309937</v>
       </c>
       <c r="H145" t="b">
         <v>0</v>
@@ -4941,7 +4941,7 @@
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="B146" t="n">
         <v>9.5625</v>
@@ -4950,7 +4950,7 @@
         <v>4</v>
       </c>
       <c r="D146" t="n">
-        <v>0</v>
+        <v>3.19</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
         <v>3</v>
       </c>
       <c r="G146" t="n">
-        <v>-0.01506272163891546</v>
+        <v>-0.01433108922408408</v>
       </c>
       <c r="H146" t="b">
         <v>0</v>
@@ -4972,7 +4972,7 @@
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="B147" t="n">
         <v>9.5625</v>
@@ -4981,7 +4981,7 @@
         <v>6</v>
       </c>
       <c r="D147" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -4992,7 +4992,7 @@
         <v>3</v>
       </c>
       <c r="G147" t="n">
-        <v>-0.0168302822782083</v>
+        <v>-0.013434372228119</v>
       </c>
       <c r="H147" t="b">
         <v>0</v>
@@ -5003,16 +5003,16 @@
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>205</v>
+        <v>176</v>
       </c>
       <c r="B148" t="n">
-        <v>9.5625</v>
+        <v>11.25</v>
       </c>
       <c r="C148" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D148" t="n">
-        <v>0</v>
+        <v>4.205</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -5020,10 +5020,10 @@
         </is>
       </c>
       <c r="F148" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G148" t="n">
-        <v>-0.01684291174309937</v>
+        <v>-0.4148431693903693</v>
       </c>
       <c r="H148" t="b">
         <v>0</v>
@@ -5034,16 +5034,16 @@
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>206</v>
+        <v>177</v>
       </c>
       <c r="B149" t="n">
-        <v>9.5625</v>
+        <v>11.25</v>
       </c>
       <c r="C149" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D149" t="n">
-        <v>0</v>
+        <v>4.13</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -5051,10 +5051,10 @@
         </is>
       </c>
       <c r="F149" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G149" t="n">
-        <v>-0.01433108922408408</v>
+        <v>-0.5291142680616624</v>
       </c>
       <c r="H149" t="b">
         <v>0</v>
@@ -5065,16 +5065,16 @@
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>208</v>
+        <v>178</v>
       </c>
       <c r="B150" t="n">
-        <v>9.5625</v>
+        <v>11.25</v>
       </c>
       <c r="C150" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D150" t="n">
-        <v>0</v>
+        <v>3.51</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -5082,10 +5082,10 @@
         </is>
       </c>
       <c r="F150" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G150" t="n">
-        <v>-0.013434372228119</v>
+        <v>-0.2019540788065813</v>
       </c>
       <c r="H150" t="b">
         <v>0</v>
@@ -5096,16 +5096,16 @@
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>210</v>
+        <v>179</v>
       </c>
       <c r="B151" t="n">
         <v>11.25</v>
       </c>
       <c r="C151" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D151" t="n">
-        <v>0.007071067811865324</v>
+        <v>3.19</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -5116,7 +5116,7 @@
         <v>2</v>
       </c>
       <c r="G151" t="n">
-        <v>-0.4148431693903693</v>
+        <v>-0.08611408995329273</v>
       </c>
       <c r="H151" t="b">
         <v>0</v>
@@ -5127,16 +5127,16 @@
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>211</v>
+        <v>181</v>
       </c>
       <c r="B152" t="n">
         <v>11.25</v>
       </c>
       <c r="C152" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D152" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>2</v>
       </c>
       <c r="G152" t="n">
-        <v>-0.5291142680616624</v>
+        <v>-0.008077025306483524</v>
       </c>
       <c r="H152" t="b">
         <v>0</v>
@@ -5158,16 +5158,16 @@
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="B153" t="n">
         <v>11.25</v>
       </c>
       <c r="C153" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D153" t="n">
-        <v>0</v>
+        <v>4.205</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
         <v>2</v>
       </c>
       <c r="G153" t="n">
-        <v>-0.2019540788065813</v>
+        <v>-0.3968230508513133</v>
       </c>
       <c r="H153" t="b">
         <v>0</v>
@@ -5189,16 +5189,16 @@
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="B154" t="n">
         <v>11.25</v>
       </c>
       <c r="C154" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D154" t="n">
-        <v>0</v>
+        <v>4.13</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         <v>2</v>
       </c>
       <c r="G154" t="n">
-        <v>-0.08611408995329273</v>
+        <v>-0.4399478155281342</v>
       </c>
       <c r="H154" t="b">
         <v>0</v>
@@ -5220,16 +5220,16 @@
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>215</v>
+        <v>184</v>
       </c>
       <c r="B155" t="n">
         <v>11.25</v>
       </c>
       <c r="C155" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D155" t="n">
-        <v>0</v>
+        <v>3.51</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -5240,7 +5240,7 @@
         <v>2</v>
       </c>
       <c r="G155" t="n">
-        <v>-0.008077025306483524</v>
+        <v>-0.1938530098469863</v>
       </c>
       <c r="H155" t="b">
         <v>0</v>
@@ -5251,16 +5251,16 @@
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>216</v>
+        <v>185</v>
       </c>
       <c r="B156" t="n">
         <v>11.25</v>
       </c>
       <c r="C156" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D156" t="n">
-        <v>0</v>
+        <v>3.19</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -5271,7 +5271,7 @@
         <v>2</v>
       </c>
       <c r="G156" t="n">
-        <v>-0.05996286037998179</v>
+        <v>-0.08306656742591412</v>
       </c>
       <c r="H156" t="b">
         <v>0</v>
@@ -5282,16 +5282,16 @@
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>217</v>
+        <v>187</v>
       </c>
       <c r="B157" t="n">
         <v>11.25</v>
       </c>
       <c r="C157" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D157" t="n">
-        <v>0.007071067811865324</v>
+        <v>1.69</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -5302,7 +5302,7 @@
         <v>2</v>
       </c>
       <c r="G157" t="n">
-        <v>-0.3968230508513133</v>
+        <v>-0.02571279794055454</v>
       </c>
       <c r="H157" t="b">
         <v>0</v>
@@ -5313,16 +5313,16 @@
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>218</v>
+        <v>188</v>
       </c>
       <c r="B158" t="n">
         <v>11.25</v>
       </c>
       <c r="C158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D158" t="n">
-        <v>0</v>
+        <v>4.205</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -5333,7 +5333,7 @@
         <v>2</v>
       </c>
       <c r="G158" t="n">
-        <v>-0.4399478155281342</v>
+        <v>-0.05854132956968758</v>
       </c>
       <c r="H158" t="b">
         <v>0</v>
@@ -5344,16 +5344,16 @@
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="B159" t="n">
         <v>11.25</v>
       </c>
       <c r="C159" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D159" t="n">
-        <v>0</v>
+        <v>4.13</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -5364,7 +5364,7 @@
         <v>2</v>
       </c>
       <c r="G159" t="n">
-        <v>-0.1938530098469863</v>
+        <v>-0.1831034670838505</v>
       </c>
       <c r="H159" t="b">
         <v>0</v>
@@ -5375,16 +5375,16 @@
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="B160" t="n">
         <v>11.25</v>
       </c>
       <c r="C160" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D160" t="n">
-        <v>0</v>
+        <v>3.51</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>2</v>
       </c>
       <c r="G160" t="n">
-        <v>-0.08306656742591412</v>
+        <v>-0.03433582918648939</v>
       </c>
       <c r="H160" t="b">
         <v>0</v>
@@ -5406,16 +5406,16 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>222</v>
+        <v>191</v>
       </c>
       <c r="B161" t="n">
         <v>11.25</v>
       </c>
       <c r="C161" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D161" t="n">
-        <v>0</v>
+        <v>3.19</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -5426,7 +5426,7 @@
         <v>2</v>
       </c>
       <c r="G161" t="n">
-        <v>-0.02571279794055454</v>
+        <v>-0.05694041633324594</v>
       </c>
       <c r="H161" t="b">
         <v>0</v>
@@ -5437,16 +5437,16 @@
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="B162" t="n">
         <v>11.25</v>
       </c>
       <c r="C162" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D162" t="n">
-        <v>0.007071067811865324</v>
+        <v>3.01</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>2</v>
       </c>
       <c r="G162" t="n">
-        <v>-0.05854132956968758</v>
+        <v>-0.01823314669485639</v>
       </c>
       <c r="H162" t="b">
         <v>0</v>
@@ -5468,16 +5468,16 @@
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>225</v>
+        <v>194</v>
       </c>
       <c r="B163" t="n">
         <v>11.25</v>
       </c>
       <c r="C163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D163" t="n">
-        <v>0</v>
+        <v>4.205</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -5488,7 +5488,7 @@
         <v>2</v>
       </c>
       <c r="G163" t="n">
-        <v>-0.1831034670838505</v>
+        <v>-0.7094983584820731</v>
       </c>
       <c r="H163" t="b">
         <v>0</v>
@@ -5499,16 +5499,16 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>226</v>
+        <v>195</v>
       </c>
       <c r="B164" t="n">
         <v>11.25</v>
       </c>
       <c r="C164" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D164" t="n">
-        <v>0</v>
+        <v>4.13</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         <v>2</v>
       </c>
       <c r="G164" t="n">
-        <v>-0.03433582918648939</v>
+        <v>-0.8591165404414639</v>
       </c>
       <c r="H164" t="b">
         <v>0</v>
@@ -5530,16 +5530,16 @@
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>227</v>
+        <v>196</v>
       </c>
       <c r="B165" t="n">
         <v>11.25</v>
       </c>
       <c r="C165" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D165" t="n">
-        <v>0</v>
+        <v>3.51</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -5550,7 +5550,7 @@
         <v>2</v>
       </c>
       <c r="G165" t="n">
-        <v>-0.05694041633324594</v>
+        <v>-0.3691147017765661</v>
       </c>
       <c r="H165" t="b">
         <v>0</v>
@@ -5561,16 +5561,16 @@
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>228</v>
+        <v>197</v>
       </c>
       <c r="B166" t="n">
         <v>11.25</v>
       </c>
       <c r="C166" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D166" t="n">
-        <v>0</v>
+        <v>3.19</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         <v>2</v>
       </c>
       <c r="G166" t="n">
-        <v>-0.01823314669485639</v>
+        <v>-0.1720719683761938</v>
       </c>
       <c r="H166" t="b">
         <v>0</v>
@@ -5592,16 +5592,16 @@
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>230</v>
+        <v>198</v>
       </c>
       <c r="B167" t="n">
         <v>11.25</v>
       </c>
       <c r="C167" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D167" t="n">
-        <v>0</v>
+        <v>3.01</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -5612,7 +5612,7 @@
         <v>2</v>
       </c>
       <c r="G167" t="n">
-        <v>-0.03998236694332501</v>
+        <v>-0.02744410396703446</v>
       </c>
       <c r="H167" t="b">
         <v>0</v>
@@ -5623,16 +5623,16 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>231</v>
+        <v>199</v>
       </c>
       <c r="B168" t="n">
         <v>11.25</v>
       </c>
       <c r="C168" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D168" t="n">
-        <v>0.007071067811865324</v>
+        <v>1.69</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>2</v>
       </c>
       <c r="G168" t="n">
-        <v>-0.7094983584820731</v>
+        <v>-0.004099054431914063</v>
       </c>
       <c r="H168" t="b">
         <v>0</v>
@@ -5654,16 +5654,16 @@
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c r="B169" t="n">
         <v>11.25</v>
       </c>
       <c r="C169" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D169" t="n">
-        <v>0</v>
+        <v>4.205</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -5674,7 +5674,7 @@
         <v>2</v>
       </c>
       <c r="G169" t="n">
-        <v>-0.8591165404414639</v>
+        <v>-0.554908227749215</v>
       </c>
       <c r="H169" t="b">
         <v>0</v>
@@ -5685,16 +5685,16 @@
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="B170" t="n">
         <v>11.25</v>
       </c>
       <c r="C170" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D170" t="n">
-        <v>0</v>
+        <v>4.13</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -5705,7 +5705,7 @@
         <v>2</v>
       </c>
       <c r="G170" t="n">
-        <v>-0.3691147017765661</v>
+        <v>-0.7646490832971151</v>
       </c>
       <c r="H170" t="b">
         <v>0</v>
@@ -5716,16 +5716,16 @@
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="B171" t="n">
         <v>11.25</v>
       </c>
       <c r="C171" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D171" t="n">
-        <v>0</v>
+        <v>3.51</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -5736,7 +5736,7 @@
         <v>2</v>
       </c>
       <c r="G171" t="n">
-        <v>-0.1720719683761938</v>
+        <v>-0.2526006469591691</v>
       </c>
       <c r="H171" t="b">
         <v>0</v>
@@ -5747,16 +5747,16 @@
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="B172" t="n">
         <v>11.25</v>
       </c>
       <c r="C172" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D172" t="n">
-        <v>0</v>
+        <v>3.19</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>2</v>
       </c>
       <c r="G172" t="n">
-        <v>-0.02744410396703446</v>
+        <v>-0.149357990021354</v>
       </c>
       <c r="H172" t="b">
         <v>0</v>
@@ -5778,16 +5778,16 @@
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="B173" t="n">
         <v>11.25</v>
       </c>
       <c r="C173" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D173" t="n">
-        <v>0</v>
+        <v>3.01</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>2</v>
       </c>
       <c r="G173" t="n">
-        <v>-0.004099054431914063</v>
+        <v>-0.1849257039536013</v>
       </c>
       <c r="H173" t="b">
         <v>0</v>
@@ -5809,16 +5809,16 @@
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>238</v>
+        <v>205</v>
       </c>
       <c r="B174" t="n">
         <v>11.25</v>
       </c>
       <c r="C174" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D174" t="n">
-        <v>0.007071067811865324</v>
+        <v>1.69</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         <v>2</v>
       </c>
       <c r="G174" t="n">
-        <v>-0.554908227749215</v>
+        <v>-0.004854479524094464</v>
       </c>
       <c r="H174" t="b">
         <v>0</v>
@@ -5840,16 +5840,16 @@
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>239</v>
+        <v>206</v>
       </c>
       <c r="B175" t="n">
         <v>11.25</v>
       </c>
       <c r="C175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D175" t="n">
-        <v>0</v>
+        <v>4.205</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         <v>2</v>
       </c>
       <c r="G175" t="n">
-        <v>-0.7646490832971151</v>
+        <v>-0.6845142197694397</v>
       </c>
       <c r="H175" t="b">
         <v>0</v>
@@ -5871,16 +5871,16 @@
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>240</v>
+        <v>207</v>
       </c>
       <c r="B176" t="n">
         <v>11.25</v>
       </c>
       <c r="C176" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D176" t="n">
-        <v>0</v>
+        <v>4.13</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>2</v>
       </c>
       <c r="G176" t="n">
-        <v>-0.2526006469591691</v>
+        <v>-1.049308928212817</v>
       </c>
       <c r="H176" t="b">
         <v>0</v>
@@ -5902,16 +5902,16 @@
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>241</v>
+        <v>208</v>
       </c>
       <c r="B177" t="n">
         <v>11.25</v>
       </c>
       <c r="C177" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D177" t="n">
-        <v>0</v>
+        <v>3.51</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -5922,7 +5922,7 @@
         <v>2</v>
       </c>
       <c r="G177" t="n">
-        <v>-0.149357990021354</v>
+        <v>-0.2754022406497751</v>
       </c>
       <c r="H177" t="b">
         <v>0</v>
@@ -5933,16 +5933,16 @@
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>242</v>
+        <v>209</v>
       </c>
       <c r="B178" t="n">
         <v>11.25</v>
       </c>
       <c r="C178" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D178" t="n">
-        <v>0</v>
+        <v>3.19</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -5953,7 +5953,7 @@
         <v>2</v>
       </c>
       <c r="G178" t="n">
-        <v>-0.1849257039536013</v>
+        <v>-0.1752438139311775</v>
       </c>
       <c r="H178" t="b">
         <v>0</v>
@@ -5964,16 +5964,16 @@
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>243</v>
+        <v>210</v>
       </c>
       <c r="B179" t="n">
         <v>11.25</v>
       </c>
       <c r="C179" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D179" t="n">
-        <v>0</v>
+        <v>3.01</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -5984,7 +5984,7 @@
         <v>2</v>
       </c>
       <c r="G179" t="n">
-        <v>-0.004854479524094464</v>
+        <v>-0.2770832106081426</v>
       </c>
       <c r="H179" t="b">
         <v>0</v>
@@ -5995,16 +5995,16 @@
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>245</v>
+        <v>211</v>
       </c>
       <c r="B180" t="n">
         <v>11.25</v>
       </c>
       <c r="C180" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D180" t="n">
-        <v>0.007071067811865324</v>
+        <v>1.69</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -6015,7 +6015,7 @@
         <v>2</v>
       </c>
       <c r="G180" t="n">
-        <v>-0.6845142197694397</v>
+        <v>-0.0324738064532348</v>
       </c>
       <c r="H180" t="b">
         <v>0</v>
@@ -6026,16 +6026,16 @@
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>246</v>
+        <v>212</v>
       </c>
       <c r="B181" t="n">
         <v>11.25</v>
       </c>
       <c r="C181" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D181" t="n">
-        <v>0</v>
+        <v>4.205</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -6046,7 +6046,7 @@
         <v>2</v>
       </c>
       <c r="G181" t="n">
-        <v>-1.049308928212817</v>
+        <v>-0.302360648064341</v>
       </c>
       <c r="H181" t="b">
         <v>0</v>
@@ -6057,16 +6057,16 @@
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>247</v>
+        <v>213</v>
       </c>
       <c r="B182" t="n">
         <v>11.25</v>
       </c>
       <c r="C182" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D182" t="n">
-        <v>0</v>
+        <v>4.13</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -6077,7 +6077,7 @@
         <v>2</v>
       </c>
       <c r="G182" t="n">
-        <v>-0.2754022406497751</v>
+        <v>-0.405514539147098</v>
       </c>
       <c r="H182" t="b">
         <v>0</v>
@@ -6088,16 +6088,16 @@
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>248</v>
+        <v>214</v>
       </c>
       <c r="B183" t="n">
         <v>11.25</v>
       </c>
       <c r="C183" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D183" t="n">
-        <v>0</v>
+        <v>3.51</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -6108,7 +6108,7 @@
         <v>2</v>
       </c>
       <c r="G183" t="n">
-        <v>-0.1752438139311775</v>
+        <v>-0.1989504051511967</v>
       </c>
       <c r="H183" t="b">
         <v>0</v>
@@ -6119,16 +6119,16 @@
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>249</v>
+        <v>215</v>
       </c>
       <c r="B184" t="n">
         <v>11.25</v>
       </c>
       <c r="C184" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D184" t="n">
-        <v>0</v>
+        <v>3.19</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         <v>2</v>
       </c>
       <c r="G184" t="n">
-        <v>-0.2770832106081426</v>
+        <v>-0.1451337901429939</v>
       </c>
       <c r="H184" t="b">
         <v>0</v>
@@ -6150,16 +6150,16 @@
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>250</v>
+        <v>216</v>
       </c>
       <c r="B185" t="n">
         <v>11.25</v>
       </c>
       <c r="C185" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D185" t="n">
-        <v>0</v>
+        <v>3.01</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>2</v>
       </c>
       <c r="G185" t="n">
-        <v>-0.0324738064532348</v>
+        <v>-0.1819551254863076</v>
       </c>
       <c r="H185" t="b">
         <v>0</v>
@@ -6181,16 +6181,16 @@
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>252</v>
+        <v>217</v>
       </c>
       <c r="B186" t="n">
         <v>11.25</v>
       </c>
       <c r="C186" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D186" t="n">
-        <v>0.007071067811865324</v>
+        <v>1.69</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>2</v>
       </c>
       <c r="G186" t="n">
-        <v>-0.302360648064341</v>
+        <v>-0.0222567410588034</v>
       </c>
       <c r="H186" t="b">
         <v>0</v>
@@ -6212,16 +6212,16 @@
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>253</v>
+        <v>218</v>
       </c>
       <c r="B187" t="n">
-        <v>11.25</v>
+        <v>13.5</v>
       </c>
       <c r="C187" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D187" t="n">
-        <v>0</v>
+        <v>4.21</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>2</v>
       </c>
       <c r="G187" t="n">
-        <v>-0.405514539147098</v>
+        <v>-0.1565228090216239</v>
       </c>
       <c r="H187" t="b">
         <v>0</v>
@@ -6243,16 +6243,16 @@
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="B188" t="n">
-        <v>11.25</v>
+        <v>13.5</v>
       </c>
       <c r="C188" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D188" t="n">
-        <v>0</v>
+        <v>4.13</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         <v>2</v>
       </c>
       <c r="G188" t="n">
-        <v>-0.1989504051511967</v>
+        <v>-0.3079809435725689</v>
       </c>
       <c r="H188" t="b">
         <v>0</v>
@@ -6274,16 +6274,16 @@
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="B189" t="n">
-        <v>11.25</v>
+        <v>13.5</v>
       </c>
       <c r="C189" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D189" t="n">
-        <v>0</v>
+        <v>3.51</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -6294,7 +6294,7 @@
         <v>2</v>
       </c>
       <c r="G189" t="n">
-        <v>-0.1451337901429939</v>
+        <v>-0.09075009382622871</v>
       </c>
       <c r="H189" t="b">
         <v>0</v>
@@ -6305,16 +6305,16 @@
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>256</v>
+        <v>221</v>
       </c>
       <c r="B190" t="n">
-        <v>11.25</v>
+        <v>13.5</v>
       </c>
       <c r="C190" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D190" t="n">
-        <v>0</v>
+        <v>3.19</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -6325,7 +6325,7 @@
         <v>2</v>
       </c>
       <c r="G190" t="n">
-        <v>-0.1819551254863076</v>
+        <v>-0.05267713455641833</v>
       </c>
       <c r="H190" t="b">
         <v>0</v>
@@ -6336,16 +6336,16 @@
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="B191" t="n">
-        <v>11.25</v>
+        <v>13.5</v>
       </c>
       <c r="C191" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D191" t="n">
-        <v>0</v>
+        <v>3.01</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         <v>2</v>
       </c>
       <c r="G191" t="n">
-        <v>-0.0222567410588034</v>
+        <v>-0.02643005528904948</v>
       </c>
       <c r="H191" t="b">
         <v>0</v>
@@ -6367,16 +6367,16 @@
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>259</v>
+        <v>224</v>
       </c>
       <c r="B192" t="n">
         <v>13.5</v>
       </c>
       <c r="C192" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D192" t="n">
-        <v>0</v>
+        <v>0.845</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>2</v>
       </c>
       <c r="G192" t="n">
-        <v>-0.1565228090216239</v>
+        <v>-0.01802324363346641</v>
       </c>
       <c r="H192" t="b">
         <v>0</v>
@@ -6398,16 +6398,16 @@
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>260</v>
+        <v>225</v>
       </c>
       <c r="B193" t="n">
         <v>13.5</v>
       </c>
       <c r="C193" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D193" t="n">
-        <v>0</v>
+        <v>4.21</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         <v>2</v>
       </c>
       <c r="G193" t="n">
-        <v>-0.3079809435725689</v>
+        <v>-0.3184977747237342</v>
       </c>
       <c r="H193" t="b">
         <v>0</v>
@@ -6429,16 +6429,16 @@
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>261</v>
+        <v>226</v>
       </c>
       <c r="B194" t="n">
         <v>13.5</v>
       </c>
       <c r="C194" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D194" t="n">
-        <v>0</v>
+        <v>4.13</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -6449,7 +6449,7 @@
         <v>2</v>
       </c>
       <c r="G194" t="n">
-        <v>-0.09075009382622871</v>
+        <v>-0.3965998832915278</v>
       </c>
       <c r="H194" t="b">
         <v>0</v>
@@ -6460,16 +6460,16 @@
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>262</v>
+        <v>227</v>
       </c>
       <c r="B195" t="n">
         <v>13.5</v>
       </c>
       <c r="C195" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D195" t="n">
-        <v>0</v>
+        <v>3.51</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -6480,7 +6480,7 @@
         <v>2</v>
       </c>
       <c r="G195" t="n">
-        <v>-0.05267713455641833</v>
+        <v>-0.213580956754116</v>
       </c>
       <c r="H195" t="b">
         <v>0</v>
@@ -6491,16 +6491,16 @@
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="B196" t="n">
         <v>13.5</v>
       </c>
       <c r="C196" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D196" t="n">
-        <v>0</v>
+        <v>3.19</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>2</v>
       </c>
       <c r="G196" t="n">
-        <v>-0.02643005528904948</v>
+        <v>-0.110210267040831</v>
       </c>
       <c r="H196" t="b">
         <v>0</v>
@@ -6522,16 +6522,16 @@
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>265</v>
+        <v>229</v>
       </c>
       <c r="B197" t="n">
         <v>13.5</v>
       </c>
       <c r="C197" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D197" t="n">
-        <v>0.007071067811865481</v>
+        <v>3.01</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         <v>2</v>
       </c>
       <c r="G197" t="n">
-        <v>-0.01802324363346641</v>
+        <v>-0.04491670760161967</v>
       </c>
       <c r="H197" t="b">
         <v>0</v>
@@ -6553,16 +6553,16 @@
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="B198" t="n">
         <v>13.5</v>
       </c>
       <c r="C198" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D198" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -6573,7 +6573,7 @@
         <v>2</v>
       </c>
       <c r="G198" t="n">
-        <v>-0.3184977747237342</v>
+        <v>-0.004826383438795521</v>
       </c>
       <c r="H198" t="b">
         <v>0</v>
@@ -6584,16 +6584,16 @@
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="B199" t="n">
         <v>13.5</v>
       </c>
       <c r="C199" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D199" t="n">
-        <v>0</v>
+        <v>0.845</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -6604,7 +6604,7 @@
         <v>2</v>
       </c>
       <c r="G199" t="n">
-        <v>-0.3965998832915278</v>
+        <v>-0.08191543705166891</v>
       </c>
       <c r="H199" t="b">
         <v>0</v>
@@ -6615,16 +6615,16 @@
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>268</v>
+        <v>232</v>
       </c>
       <c r="B200" t="n">
         <v>13.5</v>
       </c>
       <c r="C200" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D200" t="n">
-        <v>0</v>
+        <v>4.21</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -6635,7 +6635,7 @@
         <v>2</v>
       </c>
       <c r="G200" t="n">
-        <v>-0.213580956754116</v>
+        <v>-0.8007161675669907</v>
       </c>
       <c r="H200" t="b">
         <v>0</v>
@@ -6646,16 +6646,16 @@
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>269</v>
+        <v>233</v>
       </c>
       <c r="B201" t="n">
         <v>13.5</v>
       </c>
       <c r="C201" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D201" t="n">
-        <v>0</v>
+        <v>4.125</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -6666,7 +6666,7 @@
         <v>2</v>
       </c>
       <c r="G201" t="n">
-        <v>-0.110210267040831</v>
+        <v>-0.8970022103120984</v>
       </c>
       <c r="H201" t="b">
         <v>0</v>
@@ -6677,16 +6677,16 @@
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>270</v>
+        <v>234</v>
       </c>
       <c r="B202" t="n">
         <v>13.5</v>
       </c>
       <c r="C202" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D202" t="n">
-        <v>0</v>
+        <v>3.51</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>2</v>
       </c>
       <c r="G202" t="n">
-        <v>-0.04491670760161967</v>
+        <v>-0.3257176807075869</v>
       </c>
       <c r="H202" t="b">
         <v>0</v>
@@ -6708,16 +6708,16 @@
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>271</v>
+        <v>235</v>
       </c>
       <c r="B203" t="n">
         <v>13.5</v>
       </c>
       <c r="C203" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D203" t="n">
-        <v>0</v>
+        <v>3.19</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -6728,7 +6728,7 @@
         <v>2</v>
       </c>
       <c r="G203" t="n">
-        <v>-0.004826383438795521</v>
+        <v>-0.1577138951910782</v>
       </c>
       <c r="H203" t="b">
         <v>0</v>
@@ -6739,16 +6739,16 @@
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>272</v>
+        <v>236</v>
       </c>
       <c r="B204" t="n">
         <v>13.5</v>
       </c>
       <c r="C204" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D204" t="n">
-        <v>0.007071067811865481</v>
+        <v>3.01</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>2</v>
       </c>
       <c r="G204" t="n">
-        <v>-0.08191543705166891</v>
+        <v>-0.04781354663192155</v>
       </c>
       <c r="H204" t="b">
         <v>0</v>
@@ -6770,16 +6770,16 @@
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>273</v>
+        <v>237</v>
       </c>
       <c r="B205" t="n">
         <v>13.5</v>
       </c>
       <c r="C205" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D205" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -6790,7 +6790,7 @@
         <v>2</v>
       </c>
       <c r="G205" t="n">
-        <v>-0.8007161675669907</v>
+        <v>-0.03536220748718035</v>
       </c>
       <c r="H205" t="b">
         <v>0</v>
@@ -6801,16 +6801,16 @@
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>274</v>
+        <v>238</v>
       </c>
       <c r="B206" t="n">
         <v>13.5</v>
       </c>
       <c r="C206" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D206" t="n">
-        <v>0.007071067811865324</v>
+        <v>0.845</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>2</v>
       </c>
       <c r="G206" t="n">
-        <v>-0.8970022103120984</v>
+        <v>-0.02399392324306859</v>
       </c>
       <c r="H206" t="b">
         <v>0</v>
@@ -6832,16 +6832,16 @@
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>275</v>
+        <v>239</v>
       </c>
       <c r="B207" t="n">
         <v>13.5</v>
       </c>
       <c r="C207" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D207" t="n">
-        <v>0</v>
+        <v>4.21</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -6852,7 +6852,7 @@
         <v>2</v>
       </c>
       <c r="G207" t="n">
-        <v>-0.3257176807075869</v>
+        <v>-0.2966668109188003</v>
       </c>
       <c r="H207" t="b">
         <v>0</v>
@@ -6863,16 +6863,16 @@
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>276</v>
+        <v>240</v>
       </c>
       <c r="B208" t="n">
         <v>13.5</v>
       </c>
       <c r="C208" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D208" t="n">
-        <v>0</v>
+        <v>4.13</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
@@ -6883,7 +6883,7 @@
         <v>2</v>
       </c>
       <c r="G208" t="n">
-        <v>-0.1577138951910782</v>
+        <v>-0.5084435484158973</v>
       </c>
       <c r="H208" t="b">
         <v>0</v>
@@ -6894,16 +6894,16 @@
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="B209" t="n">
         <v>13.5</v>
       </c>
       <c r="C209" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D209" t="n">
-        <v>0</v>
+        <v>3.51</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>2</v>
       </c>
       <c r="G209" t="n">
-        <v>-0.04781354663192155</v>
+        <v>-0.1679529808220134</v>
       </c>
       <c r="H209" t="b">
         <v>0</v>
@@ -6925,16 +6925,16 @@
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>278</v>
+        <v>242</v>
       </c>
       <c r="B210" t="n">
         <v>13.5</v>
       </c>
       <c r="C210" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D210" t="n">
-        <v>0</v>
+        <v>3.19</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         <v>2</v>
       </c>
       <c r="G210" t="n">
-        <v>-0.03536220748718035</v>
+        <v>-0.1637007240385742</v>
       </c>
       <c r="H210" t="b">
         <v>0</v>
@@ -6956,16 +6956,16 @@
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>279</v>
+        <v>243</v>
       </c>
       <c r="B211" t="n">
         <v>13.5</v>
       </c>
       <c r="C211" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D211" t="n">
-        <v>0.007071067811865481</v>
+        <v>3.01</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -6976,7 +6976,7 @@
         <v>2</v>
       </c>
       <c r="G211" t="n">
-        <v>-0.02399392324306859</v>
+        <v>-0.2904460222382227</v>
       </c>
       <c r="H211" t="b">
         <v>0</v>
@@ -6987,16 +6987,16 @@
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>280</v>
+        <v>244</v>
       </c>
       <c r="B212" t="n">
         <v>13.5</v>
       </c>
       <c r="C212" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D212" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -7007,7 +7007,7 @@
         <v>2</v>
       </c>
       <c r="G212" t="n">
-        <v>-0.2966668109188003</v>
+        <v>-0.1613318812608076</v>
       </c>
       <c r="H212" t="b">
         <v>0</v>
@@ -7018,16 +7018,16 @@
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>281</v>
+        <v>246</v>
       </c>
       <c r="B213" t="n">
         <v>13.5</v>
       </c>
       <c r="C213" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D213" t="n">
-        <v>0</v>
+        <v>4.21</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         <v>2</v>
       </c>
       <c r="G213" t="n">
-        <v>-0.5084435484158973</v>
+        <v>-0.1751910685915533</v>
       </c>
       <c r="H213" t="b">
         <v>0</v>
@@ -7049,16 +7049,16 @@
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>282</v>
+        <v>247</v>
       </c>
       <c r="B214" t="n">
         <v>13.5</v>
       </c>
       <c r="C214" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D214" t="n">
-        <v>0</v>
+        <v>4.125</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -7069,7 +7069,7 @@
         <v>2</v>
       </c>
       <c r="G214" t="n">
-        <v>-0.1679529808220134</v>
+        <v>-0.1343952363865941</v>
       </c>
       <c r="H214" t="b">
         <v>0</v>
@@ -7080,16 +7080,16 @@
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>283</v>
+        <v>248</v>
       </c>
       <c r="B215" t="n">
         <v>13.5</v>
       </c>
       <c r="C215" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D215" t="n">
-        <v>0</v>
+        <v>3.51</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         <v>2</v>
       </c>
       <c r="G215" t="n">
-        <v>-0.1637007240385742</v>
+        <v>-0.188161054807522</v>
       </c>
       <c r="H215" t="b">
         <v>0</v>
@@ -7111,16 +7111,16 @@
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>284</v>
+        <v>249</v>
       </c>
       <c r="B216" t="n">
         <v>13.5</v>
       </c>
       <c r="C216" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D216" t="n">
-        <v>0</v>
+        <v>3.19</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>2</v>
       </c>
       <c r="G216" t="n">
-        <v>-0.2904460222382227</v>
+        <v>-0.1463849314110796</v>
       </c>
       <c r="H216" t="b">
         <v>0</v>
@@ -7142,16 +7142,16 @@
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>285</v>
+        <v>250</v>
       </c>
       <c r="B217" t="n">
         <v>13.5</v>
       </c>
       <c r="C217" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D217" t="n">
-        <v>0</v>
+        <v>3.01</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -7162,7 +7162,7 @@
         <v>2</v>
       </c>
       <c r="G217" t="n">
-        <v>-0.1613318812608076</v>
+        <v>-0.07310588061602685</v>
       </c>
       <c r="H217" t="b">
         <v>0</v>
@@ -7173,16 +7173,16 @@
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>287</v>
+        <v>251</v>
       </c>
       <c r="B218" t="n">
         <v>13.5</v>
       </c>
       <c r="C218" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D218" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -7193,7 +7193,7 @@
         <v>2</v>
       </c>
       <c r="G218" t="n">
-        <v>-0.1751910685915533</v>
+        <v>-0.1591148777381244</v>
       </c>
       <c r="H218" t="b">
         <v>0</v>
@@ -7204,16 +7204,16 @@
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>288</v>
+        <v>253</v>
       </c>
       <c r="B219" t="n">
         <v>13.5</v>
       </c>
       <c r="C219" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D219" t="n">
-        <v>0.007071067811865324</v>
+        <v>4.21</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -7224,7 +7224,7 @@
         <v>2</v>
       </c>
       <c r="G219" t="n">
-        <v>-0.1343952363865941</v>
+        <v>-0.2402846100554065</v>
       </c>
       <c r="H219" t="b">
         <v>0</v>
@@ -7235,16 +7235,16 @@
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>289</v>
+        <v>254</v>
       </c>
       <c r="B220" t="n">
         <v>13.5</v>
       </c>
       <c r="C220" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D220" t="n">
-        <v>0</v>
+        <v>4.13</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
@@ -7255,7 +7255,7 @@
         <v>2</v>
       </c>
       <c r="G220" t="n">
-        <v>-0.188161054807522</v>
+        <v>-0.2824447196773622</v>
       </c>
       <c r="H220" t="b">
         <v>0</v>
@@ -7266,16 +7266,16 @@
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B221" t="n">
         <v>13.5</v>
       </c>
       <c r="C221" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D221" t="n">
-        <v>0</v>
+        <v>3.51</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -7286,7 +7286,7 @@
         <v>2</v>
       </c>
       <c r="G221" t="n">
-        <v>-0.1463849314110796</v>
+        <v>-0.2086848359814376</v>
       </c>
       <c r="H221" t="b">
         <v>0</v>
@@ -7297,16 +7297,16 @@
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B222" t="n">
         <v>13.5</v>
       </c>
       <c r="C222" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D222" t="n">
-        <v>0</v>
+        <v>3.19</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
         <v>2</v>
       </c>
       <c r="G222" t="n">
-        <v>-0.07310588061602685</v>
+        <v>-0.1675373209755054</v>
       </c>
       <c r="H222" t="b">
         <v>0</v>
@@ -7328,16 +7328,16 @@
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B223" t="n">
         <v>13.5</v>
       </c>
       <c r="C223" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D223" t="n">
-        <v>0</v>
+        <v>3.01</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
@@ -7348,7 +7348,7 @@
         <v>2</v>
       </c>
       <c r="G223" t="n">
-        <v>-0.1591148777381244</v>
+        <v>-0.1147858504370815</v>
       </c>
       <c r="H223" t="b">
         <v>0</v>
@@ -7359,16 +7359,16 @@
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
-        <v>294</v>
+        <v>258</v>
       </c>
       <c r="B224" t="n">
         <v>13.5</v>
       </c>
       <c r="C224" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D224" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
         <v>2</v>
       </c>
       <c r="G224" t="n">
-        <v>-0.2402846100554065</v>
+        <v>-0.1261965563020129</v>
       </c>
       <c r="H224" t="b">
         <v>0</v>
@@ -7390,16 +7390,16 @@
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
-        <v>295</v>
+        <v>260</v>
       </c>
       <c r="B225" t="n">
         <v>13.5</v>
       </c>
       <c r="C225" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D225" t="n">
-        <v>0</v>
+        <v>4.21</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
@@ -7410,7 +7410,7 @@
         <v>2</v>
       </c>
       <c r="G225" t="n">
-        <v>-0.2824447196773622</v>
+        <v>-0.6483140452665134</v>
       </c>
       <c r="H225" t="b">
         <v>0</v>
@@ -7421,16 +7421,16 @@
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
-        <v>296</v>
+        <v>261</v>
       </c>
       <c r="B226" t="n">
         <v>13.5</v>
       </c>
       <c r="C226" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D226" t="n">
-        <v>0</v>
+        <v>4.13</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
@@ -7441,7 +7441,7 @@
         <v>2</v>
       </c>
       <c r="G226" t="n">
-        <v>-0.2086848359814376</v>
+        <v>-0.7043490646322143</v>
       </c>
       <c r="H226" t="b">
         <v>0</v>
@@ -7452,16 +7452,16 @@
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
-        <v>297</v>
+        <v>262</v>
       </c>
       <c r="B227" t="n">
         <v>13.5</v>
       </c>
       <c r="C227" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D227" t="n">
-        <v>0</v>
+        <v>3.51</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
@@ -7472,7 +7472,7 @@
         <v>2</v>
       </c>
       <c r="G227" t="n">
-        <v>-0.1675373209755054</v>
+        <v>-0.3628392308916158</v>
       </c>
       <c r="H227" t="b">
         <v>0</v>
@@ -7483,16 +7483,16 @@
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
-        <v>298</v>
+        <v>263</v>
       </c>
       <c r="B228" t="n">
         <v>13.5</v>
       </c>
       <c r="C228" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D228" t="n">
-        <v>0</v>
+        <v>3.19</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -7503,7 +7503,7 @@
         <v>2</v>
       </c>
       <c r="G228" t="n">
-        <v>-0.1147858504370815</v>
+        <v>-0.2297506443239269</v>
       </c>
       <c r="H228" t="b">
         <v>0</v>
@@ -7514,16 +7514,16 @@
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
-        <v>299</v>
+        <v>264</v>
       </c>
       <c r="B229" t="n">
         <v>13.5</v>
       </c>
       <c r="C229" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D229" t="n">
-        <v>0</v>
+        <v>3.01</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         <v>2</v>
       </c>
       <c r="G229" t="n">
-        <v>-0.1261965563020129</v>
+        <v>-0.163289137910484</v>
       </c>
       <c r="H229" t="b">
         <v>0</v>
@@ -7545,16 +7545,16 @@
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
-        <v>301</v>
+        <v>265</v>
       </c>
       <c r="B230" t="n">
         <v>13.5</v>
       </c>
       <c r="C230" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D230" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
@@ -7565,167 +7565,12 @@
         <v>2</v>
       </c>
       <c r="G230" t="n">
-        <v>-0.6483140452665134</v>
+        <v>-0.1112829484380608</v>
       </c>
       <c r="H230" t="b">
         <v>0</v>
       </c>
       <c r="I230" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>302</v>
-      </c>
-      <c r="B231" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="C231" t="n">
-        <v>2</v>
-      </c>
-      <c r="D231" t="n">
-        <v>0</v>
-      </c>
-      <c r="E231" t="inlineStr">
-        <is>
-          <t>KHA</t>
-        </is>
-      </c>
-      <c r="F231" t="n">
-        <v>2</v>
-      </c>
-      <c r="G231" t="n">
-        <v>-0.7043490646322143</v>
-      </c>
-      <c r="H231" t="b">
-        <v>0</v>
-      </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>303</v>
-      </c>
-      <c r="B232" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="C232" t="n">
-        <v>3</v>
-      </c>
-      <c r="D232" t="n">
-        <v>0</v>
-      </c>
-      <c r="E232" t="inlineStr">
-        <is>
-          <t>KHA</t>
-        </is>
-      </c>
-      <c r="F232" t="n">
-        <v>2</v>
-      </c>
-      <c r="G232" t="n">
-        <v>-0.3628392308916158</v>
-      </c>
-      <c r="H232" t="b">
-        <v>0</v>
-      </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>304</v>
-      </c>
-      <c r="B233" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="C233" t="n">
-        <v>4</v>
-      </c>
-      <c r="D233" t="n">
-        <v>0</v>
-      </c>
-      <c r="E233" t="inlineStr">
-        <is>
-          <t>KHA</t>
-        </is>
-      </c>
-      <c r="F233" t="n">
-        <v>2</v>
-      </c>
-      <c r="G233" t="n">
-        <v>-0.2297506443239269</v>
-      </c>
-      <c r="H233" t="b">
-        <v>0</v>
-      </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>305</v>
-      </c>
-      <c r="B234" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="C234" t="n">
-        <v>5</v>
-      </c>
-      <c r="D234" t="n">
-        <v>0</v>
-      </c>
-      <c r="E234" t="inlineStr">
-        <is>
-          <t>KHA</t>
-        </is>
-      </c>
-      <c r="F234" t="n">
-        <v>2</v>
-      </c>
-      <c r="G234" t="n">
-        <v>-0.163289137910484</v>
-      </c>
-      <c r="H234" t="b">
-        <v>0</v>
-      </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>306</v>
-      </c>
-      <c r="B235" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="C235" t="n">
-        <v>6</v>
-      </c>
-      <c r="D235" t="n">
-        <v>0</v>
-      </c>
-      <c r="E235" t="inlineStr">
-        <is>
-          <t>KHA</t>
-        </is>
-      </c>
-      <c r="F235" t="n">
-        <v>2</v>
-      </c>
-      <c r="G235" t="n">
-        <v>-0.1112829484380608</v>
-      </c>
-      <c r="H235" t="b">
-        <v>0</v>
-      </c>
-      <c r="I235" t="n">
         <v>0</v>
       </c>
     </row>
